--- a/biology/Botanique/Tachia/Tachia.xlsx
+++ b/biology/Botanique/Tachia/Tachia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Tachia est un genre d'arbuste, de la région néotropiacle, appartenant à la famille des Gentianaceae, dont l'espèce type est Tachia guianensis Aubl., et comptant entre 13 et 23 espèces.
-Le nom Tachia provient du nom Galibi, qui désigne les fourmis tachi qui vivent dans les tiges creuses de Tachia guianensis[3].
+Le nom Tachia provient du nom Galibi, qui désigne les fourmis tachi qui vivent dans les tiges creuses de Tachia guianensis.
 </t>
         </is>
       </c>
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Tachia est un genre d'arbustes, d'arbrisseaux ou d'herbacées vivaces, à tiges cylindriques, souvent avec de la résine à l'aisselle des feuilles supérieures. 
 Les feuilles entièrement développées, pétiolées à subsessiles, chlorophylliennes, à limbes non amplexicaules, mesurant 6,5-35 cm de long et comptant 3-11 nervures. 
@@ -525,7 +539,7 @@
 Les grains de pollen sont organisées en monades.
 Le pistil comporte un disque de nectaire à sa base, avec un stigmate en deux lamelles. 
 Le fruit est une capsule ligneuse, déhiscente par 2 valves, avec le calice longtemps persistant.
-Les graines sont globuleuses à anguleuses, avec le testa papilleux[4],[5],[6],[7],[8],[9],[10]
+Les graines sont globuleuses à anguleuses, avec le testa papilleux
 </t>
         </is>
       </c>
@@ -554,9 +568,11 @@
           <t>Protologue</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>En 1775, le botaniste Aublet propose le protologue suivant[3] : 
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>En 1775, le botaniste Aublet propose le protologue suivant : 
 « TACHIA. (Tabula 29.)
 CAL. Perianthium monophyllum, oblongum; tubuloſum, quinquederitatum, denticulis acutis, erectis.
 COR. monopetala, tubuloſa, receptaculo piſtilli inferta; fauce inflatâ; limbus quinquefidus, laciniis ovatis, acutis, extrorium revolutis.
@@ -592,9 +608,11 @@
           <t>Espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon GBIF       (07 février 2024)[11] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon GBIF       (07 février 2024) :
 Tachia blancoi Al.Rodr. &amp; J.Sánchez-Gonz.
 Tachia gracilis Benth.
 Tachia grandiflora Maguire &amp; Weaver
@@ -613,9 +631,9 @@
 Tachia schomburgkiana Benth.
 Tachia siwertii Struwe, Kinkade &amp; Maas
 Tachia smithii Maguire &amp; Weaver
-Selon Tropicos                                           (07 février 2024)[12] (Attention liste brute contenant possiblement des synonymes) :
+Selon Tropicos                                           (07 février 2024) (Attention liste brute contenant possiblement des synonymes) :
 Tachia blancoi Al. Rodr. &amp; J. Sánchez-Gonz., 2017
-Tachia calygona (Ruiz &amp; Pav.) Griseb., 1839 [1838]
+Tachia calygona (Ruiz &amp; Pav.) Griseb., 1839 
 Tachia cordifolia (L.) Mart. ex G. Don, 1837
 Tachia gracilis Benth., 1854
 Tachia grandiflora Maguire &amp; Weaver, 1975
@@ -626,7 +644,7 @@
 Tachia longipes L. Cobb &amp; Maas, 1998
 Tachia loretensis Maguire &amp; Weaver, 1975
 Tachia occidentalis Maguire &amp; Weaver, 1975
-Tachia orientalis (Maguire &amp; Weaver) Struwe &amp; Kinkade, 2013 [2014]
+Tachia orientalis (Maguire &amp; Weaver) Struwe &amp; Kinkade, 2013 
 Tachia paniculata (Aubl.) Pers., 1805
 Tachia parviflora Maguire &amp; Weaver, 1975
 Tachia pavonii Gilg, nom. nud., 1895
